--- a/public/DataExcel/dosen.xlsx
+++ b/public/DataExcel/dosen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT SIPPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2EFAB8-473F-40F9-9030-E898C00C10E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2865C0-DE28-49B4-BEA1-CBED440C3E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="844">
   <si>
     <t>0020046406</t>
   </si>
@@ -1331,6 +1331,1236 @@
   </si>
   <si>
     <t>Ir. Hangrie Jimmy Namserna,M.Si</t>
+  </si>
+  <si>
+    <t>0011017703</t>
+  </si>
+  <si>
+    <t>0003067809</t>
+  </si>
+  <si>
+    <t>0001078107</t>
+  </si>
+  <si>
+    <t>0017088104</t>
+  </si>
+  <si>
+    <t>0001048201</t>
+  </si>
+  <si>
+    <t>0013028401</t>
+  </si>
+  <si>
+    <t>0031108301</t>
+  </si>
+  <si>
+    <t>0012028202</t>
+  </si>
+  <si>
+    <t>0030118004</t>
+  </si>
+  <si>
+    <t>0029078202</t>
+  </si>
+  <si>
+    <t>0003057705</t>
+  </si>
+  <si>
+    <t>0018017808</t>
+  </si>
+  <si>
+    <t>0019086909</t>
+  </si>
+  <si>
+    <t>0028118401</t>
+  </si>
+  <si>
+    <t>0029018404</t>
+  </si>
+  <si>
+    <t>0004097305</t>
+  </si>
+  <si>
+    <t>0022128004</t>
+  </si>
+  <si>
+    <t>0019107803</t>
+  </si>
+  <si>
+    <t>0015068104</t>
+  </si>
+  <si>
+    <t>0002116904</t>
+  </si>
+  <si>
+    <t>0024047801</t>
+  </si>
+  <si>
+    <t>0028127601</t>
+  </si>
+  <si>
+    <t>0007058401</t>
+  </si>
+  <si>
+    <t>0006127705</t>
+  </si>
+  <si>
+    <t>0006068003</t>
+  </si>
+  <si>
+    <t>0005037908</t>
+  </si>
+  <si>
+    <t>0020086507</t>
+  </si>
+  <si>
+    <t>0012127909</t>
+  </si>
+  <si>
+    <t>0006068301</t>
+  </si>
+  <si>
+    <t>0014067703</t>
+  </si>
+  <si>
+    <t>0003077403</t>
+  </si>
+  <si>
+    <t>0006076811</t>
+  </si>
+  <si>
+    <t>0023037905</t>
+  </si>
+  <si>
+    <t>0017088201</t>
+  </si>
+  <si>
+    <t>0007087603</t>
+  </si>
+  <si>
+    <t>0005037005</t>
+  </si>
+  <si>
+    <t>0027017904</t>
+  </si>
+  <si>
+    <t>0009067805</t>
+  </si>
+  <si>
+    <t>0017076911</t>
+  </si>
+  <si>
+    <t>0002017404</t>
+  </si>
+  <si>
+    <t>0011037803</t>
+  </si>
+  <si>
+    <t>0020086704</t>
+  </si>
+  <si>
+    <t>0007026704</t>
+  </si>
+  <si>
+    <t>0029115705</t>
+  </si>
+  <si>
+    <t>0009096403</t>
+  </si>
+  <si>
+    <t>0011066705</t>
+  </si>
+  <si>
+    <t>0017036209</t>
+  </si>
+  <si>
+    <t>0022116211</t>
+  </si>
+  <si>
+    <t>0030017705</t>
+  </si>
+  <si>
+    <t>0031057303</t>
+  </si>
+  <si>
+    <t>0030097606</t>
+  </si>
+  <si>
+    <t>0017077603</t>
+  </si>
+  <si>
+    <t>0025017704</t>
+  </si>
+  <si>
+    <t>0017107701</t>
+  </si>
+  <si>
+    <t>0004036805</t>
+  </si>
+  <si>
+    <t>0008067006</t>
+  </si>
+  <si>
+    <t>0027096909</t>
+  </si>
+  <si>
+    <t>0002107503</t>
+  </si>
+  <si>
+    <t>0010077903</t>
+  </si>
+  <si>
+    <t>0016066412</t>
+  </si>
+  <si>
+    <t>0024106005</t>
+  </si>
+  <si>
+    <t>0029026804</t>
+  </si>
+  <si>
+    <t>0002036703</t>
+  </si>
+  <si>
+    <t>0016026311</t>
+  </si>
+  <si>
+    <t>0008076005</t>
+  </si>
+  <si>
+    <t>0019076105</t>
+  </si>
+  <si>
+    <t>0029126503</t>
+  </si>
+  <si>
+    <t>0030046009</t>
+  </si>
+  <si>
+    <t>0013016304</t>
+  </si>
+  <si>
+    <t>0016116604</t>
+  </si>
+  <si>
+    <t>0006016905</t>
+  </si>
+  <si>
+    <t>0030036304</t>
+  </si>
+  <si>
+    <t>0007086407</t>
+  </si>
+  <si>
+    <t>0024036705</t>
+  </si>
+  <si>
+    <t>0017046410</t>
+  </si>
+  <si>
+    <t>0004046414</t>
+  </si>
+  <si>
+    <t>0012095910</t>
+  </si>
+  <si>
+    <t>0007026208</t>
+  </si>
+  <si>
+    <t>0004056210</t>
+  </si>
+  <si>
+    <t>0012046013</t>
+  </si>
+  <si>
+    <t>0023126408</t>
+  </si>
+  <si>
+    <t>0003106405</t>
+  </si>
+  <si>
+    <t>0023028201</t>
+  </si>
+  <si>
+    <t>0003067405</t>
+  </si>
+  <si>
+    <t>0010097404</t>
+  </si>
+  <si>
+    <t>0023057303</t>
+  </si>
+  <si>
+    <t>0020017405</t>
+  </si>
+  <si>
+    <t>0005117505</t>
+  </si>
+  <si>
+    <t>0003036905</t>
+  </si>
+  <si>
+    <t>0024108205</t>
+  </si>
+  <si>
+    <t>0014118402</t>
+  </si>
+  <si>
+    <t>0011118504</t>
+  </si>
+  <si>
+    <t>0018058502</t>
+  </si>
+  <si>
+    <t>0021077903</t>
+  </si>
+  <si>
+    <t>0013076705</t>
+  </si>
+  <si>
+    <t>0006028401</t>
+  </si>
+  <si>
+    <t>0015078305</t>
+  </si>
+  <si>
+    <t>0029117301</t>
+  </si>
+  <si>
+    <t>0006048403</t>
+  </si>
+  <si>
+    <t>0029107301</t>
+  </si>
+  <si>
+    <t>0022097602</t>
+  </si>
+  <si>
+    <t>0014038103</t>
+  </si>
+  <si>
+    <t>0023017803</t>
+  </si>
+  <si>
+    <t>0030097705</t>
+  </si>
+  <si>
+    <t>0012127208</t>
+  </si>
+  <si>
+    <t>0025048202</t>
+  </si>
+  <si>
+    <t>0009127504</t>
+  </si>
+  <si>
+    <t>0017096012</t>
+  </si>
+  <si>
+    <t>0030085601</t>
+  </si>
+  <si>
+    <t>0018046605</t>
+  </si>
+  <si>
+    <t>0003036510</t>
+  </si>
+  <si>
+    <t>0018046409</t>
+  </si>
+  <si>
+    <t>0019085708</t>
+  </si>
+  <si>
+    <t>0002116006</t>
+  </si>
+  <si>
+    <t>0008096205</t>
+  </si>
+  <si>
+    <t>0014046604</t>
+  </si>
+  <si>
+    <t>0020046407</t>
+  </si>
+  <si>
+    <t>0023096310</t>
+  </si>
+  <si>
+    <t>0026035708</t>
+  </si>
+  <si>
+    <t>0010056007</t>
+  </si>
+  <si>
+    <t>0008065804</t>
+  </si>
+  <si>
+    <t>0014076508</t>
+  </si>
+  <si>
+    <t>0018086206</t>
+  </si>
+  <si>
+    <t>0004076506</t>
+  </si>
+  <si>
+    <t>0023106702</t>
+  </si>
+  <si>
+    <t>0003096006</t>
+  </si>
+  <si>
+    <t>0023046206</t>
+  </si>
+  <si>
+    <t>0005076606</t>
+  </si>
+  <si>
+    <t>0008086810</t>
+  </si>
+  <si>
+    <t>0010067507</t>
+  </si>
+  <si>
+    <t>0029017303</t>
+  </si>
+  <si>
+    <t>0007068105</t>
+  </si>
+  <si>
+    <t>0023017703</t>
+  </si>
+  <si>
+    <t>0010027806</t>
+  </si>
+  <si>
+    <t>0023098001</t>
+  </si>
+  <si>
+    <t>0028068005</t>
+  </si>
+  <si>
+    <t>0024116904</t>
+  </si>
+  <si>
+    <t>0021107609</t>
+  </si>
+  <si>
+    <t>0028018107</t>
+  </si>
+  <si>
+    <t>0015127206</t>
+  </si>
+  <si>
+    <t>0022027603</t>
+  </si>
+  <si>
+    <t>0009098201</t>
+  </si>
+  <si>
+    <t>0016107604</t>
+  </si>
+  <si>
+    <t>0021017904</t>
+  </si>
+  <si>
+    <t>002345780</t>
+  </si>
+  <si>
+    <t>0026037106</t>
+  </si>
+  <si>
+    <t>0011098102</t>
+  </si>
+  <si>
+    <t>0016098303</t>
+  </si>
+  <si>
+    <t>0031126919</t>
+  </si>
+  <si>
+    <t>0005048501</t>
+  </si>
+  <si>
+    <t>0003038003</t>
+  </si>
+  <si>
+    <t>0026118001</t>
+  </si>
+  <si>
+    <t>0018038201</t>
+  </si>
+  <si>
+    <t>0029098102</t>
+  </si>
+  <si>
+    <t>0002058202</t>
+  </si>
+  <si>
+    <t>0021018601</t>
+  </si>
+  <si>
+    <t>0009018202</t>
+  </si>
+  <si>
+    <t>0003058007</t>
+  </si>
+  <si>
+    <t>0027107604</t>
+  </si>
+  <si>
+    <t>0023117703</t>
+  </si>
+  <si>
+    <t>0026108301</t>
+  </si>
+  <si>
+    <t>0008118202</t>
+  </si>
+  <si>
+    <t>0016117904</t>
+  </si>
+  <si>
+    <t>0030107502</t>
+  </si>
+  <si>
+    <t>0002047903</t>
+  </si>
+  <si>
+    <t>0025096312</t>
+  </si>
+  <si>
+    <t>0006127302</t>
+  </si>
+  <si>
+    <t>0018056509</t>
+  </si>
+  <si>
+    <t>0012086809</t>
+  </si>
+  <si>
+    <t>0023076106</t>
+  </si>
+  <si>
+    <t>0008086809</t>
+  </si>
+  <si>
+    <t>0006105808</t>
+  </si>
+  <si>
+    <t>0028086604</t>
+  </si>
+  <si>
+    <t>0012108007</t>
+  </si>
+  <si>
+    <t>0012128301</t>
+  </si>
+  <si>
+    <t>0005038601</t>
+  </si>
+  <si>
+    <t>0002087908</t>
+  </si>
+  <si>
+    <t>0015127901</t>
+  </si>
+  <si>
+    <t>0014108602</t>
+  </si>
+  <si>
+    <t>0008057903</t>
+  </si>
+  <si>
+    <t>0024058501</t>
+  </si>
+  <si>
+    <t>0016077802</t>
+  </si>
+  <si>
+    <t>0016086804</t>
+  </si>
+  <si>
+    <t>0004117404</t>
+  </si>
+  <si>
+    <t>0023117204</t>
+  </si>
+  <si>
+    <t>0020038205</t>
+  </si>
+  <si>
+    <t>0029087702</t>
+  </si>
+  <si>
+    <t>0011017413</t>
+  </si>
+  <si>
+    <t>0031128006</t>
+  </si>
+  <si>
+    <t>0003107706</t>
+  </si>
+  <si>
+    <t>0004077306</t>
+  </si>
+  <si>
+    <t>0009077804</t>
+  </si>
+  <si>
+    <t>0001057909</t>
+  </si>
+  <si>
+    <t>0027117801</t>
+  </si>
+  <si>
+    <t>0021037802</t>
+  </si>
+  <si>
+    <t>0022048102</t>
+  </si>
+  <si>
+    <t>0019027502</t>
+  </si>
+  <si>
+    <t>0004106404</t>
+  </si>
+  <si>
+    <t>0010067906</t>
+  </si>
+  <si>
+    <t>0015067804</t>
+  </si>
+  <si>
+    <t>0001077508</t>
+  </si>
+  <si>
+    <t>0029057603</t>
+  </si>
+  <si>
+    <t>0022058103</t>
+  </si>
+  <si>
+    <t>0020038202</t>
+  </si>
+  <si>
+    <t>Abdul Rahman Ollong, S.Pt, M.Si</t>
+  </si>
+  <si>
+    <t>Abraham William Manumpil, S.Ik.,M.Si</t>
+  </si>
+  <si>
+    <t>Aditya Rahmadaniarti, S.Hut.,M.Sc</t>
+  </si>
+  <si>
+    <t>Alexander Rumatora, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Alfredo Otto Wanma, S.Hut.,M.Si</t>
+  </si>
+  <si>
+    <t>Alnita Baaka, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Amilda Auri, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Ana Tampang, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Angelina Novita Tethool, S.Pt, M.Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anik Wuriasih, SE, M.Si.Ak,CA </t>
+  </si>
+  <si>
+    <t>Anjeli Sulistianti Paisey, S.Pi,M.Si</t>
+  </si>
+  <si>
+    <t>Baso Daeng, SP, M.Si</t>
+  </si>
+  <si>
+    <t>Besse Amriati, SP, MP</t>
+  </si>
+  <si>
+    <t>Camelia Lusandri Numberi, SE.,M.Sc</t>
+  </si>
+  <si>
+    <t>Charly Bravo Wanggai, ST, M.I.L</t>
+  </si>
+  <si>
+    <t>Christian Soleman Imburi, S.Hut.,M.Sc</t>
+  </si>
+  <si>
+    <t>Daniel Yohanis Seseray, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Danny Erlis Waimbo, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Dedi Parenden, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>DedY Riantoro, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Deny A. Iyai, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Desni T.Ruli Saragih, S.Pt, M.Si</t>
+  </si>
+  <si>
+    <t>Devi Manuhua, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Diana Sawen, S.Pt, M.Si</t>
+  </si>
+  <si>
+    <t>Dina Arung Padang, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Dirarini Sudarwadi, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Djumiati Mustiah, SP, M.P</t>
+  </si>
+  <si>
+    <t>Dominggas M.H. Renwarin, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Donny Aristone Djitmau, S.Hut.,M.Sc</t>
+  </si>
+  <si>
+    <t>Dougklas Ledrik Wattimury, M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Abdul Azis, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>DR. Abdul Hamid A.Toha, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Agustinus Murdjoko, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr. Albertus Girik Allo, SP, M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Alce Ilona Noya, SP.,M.Si</t>
+  </si>
+  <si>
+    <t>DR. Alianto, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Anton Silas Sinery, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Antoni Ungirwalu, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr. Cicilia M.E. Susanti, S.Hut,M.Sc</t>
+  </si>
+  <si>
+    <t>Dr. Emmanuel Manangkalangi,S.Pi.,M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Gandi Yantri S. Purba, M.Si</t>
+  </si>
+  <si>
+    <t>DR. Ir. Elfira Kariane Suawa, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr. Ir. Freddy Pattiselano, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr. Ir. Irba Unggul Warsono, MP</t>
+  </si>
+  <si>
+    <t>Dr. Ir. Irnanda A.F. Djuuna, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr. Ir. Mohamad Jen Wajo, MP</t>
+  </si>
+  <si>
+    <t>Dr. Ir. Onesimus Yoku, MS</t>
+  </si>
+  <si>
+    <t>Dr. Ir. Sientje Daisy Rumetor, MP</t>
+  </si>
+  <si>
+    <t>Dr. Mahmud, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr. Muhammad G.Tafalas, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Renny Purnawati, S.Hut.,M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Selvi Tebaiy, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Sepus Marten Fatem, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr. Stepanus Pakage, S.Pt, M.Si</t>
+  </si>
+  <si>
+    <t>Dr. Syafrudin Raharjo, S.Pi, MT</t>
+  </si>
+  <si>
+    <t>Dr. Yuanike, S.Si, M.Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.Alusius P.E.Widodo, S.Pt, M.Sc.Ag   </t>
+  </si>
+  <si>
+    <t>Dr.drh. Priyo Sambodo, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Elieser Y.I.V. Sirami, S.Hut.,M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Antonius Suparno, MP</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Bambang Nugroho, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Eko Agus Martanto, MP</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Ihwan Tjolli, MP</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Ishak Musa'ad, MP</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Julius Dwi Nugroho, M.Sc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.Ir. Marlyn N. Lekitoo, MS        </t>
+  </si>
+  <si>
+    <t>Dr.Ir. Martha Kayadoe, MP</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Muhammad Affan Mu'in, MP</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Mulyadi, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Nouke Lenda Mawikere, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Nurhaidah I. Sinaga, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Paulus Boli, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Reymas M.R. Ruimassa,M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Ridwan Sala, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Rudy A. Maturbongs, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Rully Novie Wurarah, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Samen Baan, MP</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Sangle Yohanes Randa, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Saraswati Prabawardani,M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Sintje Lumatauw, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Soetjipto Moeljono, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ir. Vera Sabariah, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Jimmy Frans Wanma, S.Hut, M.App.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Jonni Marwa, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Ludia Th. Wambrauw,SP, M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Rima H.S. Siburian, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Dr.Selmi Dedi, SE, M.AB</t>
+  </si>
+  <si>
+    <t>Dr.Thomas Frans Pattiasina,S.Pi,M.Sc</t>
+  </si>
+  <si>
+    <t>Dr.Trisiwi W. Widayati, S.Pt, MM</t>
+  </si>
+  <si>
+    <t>drh. Dwi Nurhayati.,M.Sc</t>
+  </si>
+  <si>
+    <t>drh. Isti Widayati, M.Sc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drh. Noviyanti, MPH </t>
+  </si>
+  <si>
+    <t>Evelin Anggelina Tanur, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Fadli Zainuddin, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Fanny F.C. Simatauw, S.Pi, MP</t>
+  </si>
+  <si>
+    <t>Ferawati Runtuboi,S.Ik , M.Si</t>
+  </si>
+  <si>
+    <t>Fitriyah Irmawati E.S, ST, M.Si</t>
+  </si>
+  <si>
+    <t>Francina F. Kesaulia, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Frida Aprilia Loinenak, S.Ik, M.Si</t>
+  </si>
+  <si>
+    <t>Hans F.Z. Peday, S.Hut , M.Si</t>
+  </si>
+  <si>
+    <t>Hendrik Victor Ayhuan, S.Ik.,M.Si</t>
+  </si>
+  <si>
+    <t>Herman Wafom Tubur, SP, M.Si</t>
+  </si>
+  <si>
+    <t>Hermanus Warmetan, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Hieronymus Y.Chrysostomus, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Hotlan Manik, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Hustianto Sudarwadi, SE, MSc</t>
+  </si>
+  <si>
+    <t>Ida Lapadi, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Ir. A. Gatot Murwanto, M.Si</t>
+  </si>
+  <si>
+    <t>Ir. Albert W.A. Renyaan, MP</t>
+  </si>
+  <si>
+    <t>Ir. B.M.G. Sadsoeitoeboen, M.Sc</t>
+  </si>
+  <si>
+    <t>Ir. B.Wahyuni I. Rahayu, MP</t>
+  </si>
+  <si>
+    <t>Ir. Bambang Tj. Hariadi, MP</t>
+  </si>
+  <si>
+    <t>Ir. Bernadus B. Rettob, M.Si</t>
+  </si>
+  <si>
+    <t>Ir. Djonli Woran, MP</t>
+  </si>
+  <si>
+    <t>Ir. Dwi Djoko Raharjo, MP</t>
+  </si>
+  <si>
+    <t>Ir. Endra Gunawan, MP</t>
+  </si>
+  <si>
+    <t>Ir. Erlina R. Situmorang, M.Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir. Hanike Monim, M.Sc, Ph.D </t>
+  </si>
+  <si>
+    <t>Ir. Jacobus Wanggai, MP</t>
+  </si>
+  <si>
+    <t>Ir. Lambert N. Nuhuyanan,MP</t>
+  </si>
+  <si>
+    <t>Ir. Max Jundodago Tokede, MS</t>
+  </si>
+  <si>
+    <t>Ir. Mudjirahayu, M.Sc</t>
+  </si>
+  <si>
+    <t>Ir. Muhammad Djunaidi, M.Si</t>
+  </si>
+  <si>
+    <t>Ir. Muhammad Takdir, MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir. Obed Nedjo Lense, M.Sc, PhD </t>
+  </si>
+  <si>
+    <t>Ir. Rusdi Angrianto, MP</t>
+  </si>
+  <si>
+    <t>Ir. Susilo Budi Husodo, MP</t>
+  </si>
+  <si>
+    <t>Ir. Yosias Gandhi, M.Sc</t>
+  </si>
+  <si>
+    <t>Ir.Agustina Y.S. Arobaya, M.Sc</t>
+  </si>
+  <si>
+    <t>Iriani Sumpe, S.Pt, M.Si</t>
+  </si>
+  <si>
+    <t>Jafry Ferdinand Manuhutu, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Jein Sriana Toyib, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Jemmy Manan,S.Ik,DEA</t>
+  </si>
+  <si>
+    <t>Johan Fredrik Koibur, S.Pt, M.Si</t>
+  </si>
+  <si>
+    <t>Johanes Paulus Koromath, SE, M.Sc</t>
+  </si>
+  <si>
+    <t>John Arnold Palulungan, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Johny Aninam, SE.,ME</t>
+  </si>
+  <si>
+    <t>Juliana Leiwakabessy, S.Pi, M,.Si</t>
+  </si>
+  <si>
+    <t>Ketysia Imelda Tewernusa, SE, M.Si</t>
+  </si>
+  <si>
+    <t>La Ode Alisyah, SE, M.Ec.Dev</t>
+  </si>
+  <si>
+    <t>Lilyani Margaretha Orisu, SE, M.Sc</t>
+  </si>
+  <si>
+    <t>Louis Soemadi Bopeng, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Lukas Yowel Sonbait, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Luky Sembel, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Lutfi, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Magriet Ester Sawaki, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Makarius Bajari, SE, M.M</t>
+  </si>
+  <si>
+    <t>Marcus Ronaldo Maspaitella, S.P.,M.AgriComm</t>
+  </si>
+  <si>
+    <t>Margareth Sylvia Sabarofek,SE.,M.Si</t>
+  </si>
+  <si>
+    <t>Marhan, S.Pi, MT</t>
+  </si>
+  <si>
+    <t>Maria Magdalena Semet, S.E, M.Sc</t>
+  </si>
+  <si>
+    <t>Mariana Hermina Peday, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Marlina Malino, SE, M.Sc</t>
+  </si>
+  <si>
+    <t>Martha A.C. Kareth, SE, M.Sc</t>
+  </si>
+  <si>
+    <t>Matheus Beljai, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Meliza Sartje Worabai, S.Si, M.Si</t>
+  </si>
+  <si>
+    <t>Mona Permatasari Mokodompit, SE,Ak.M.Ak</t>
+  </si>
+  <si>
+    <t>Muliyana Arifuddin, S.Hut, M.Wood,Sc</t>
+  </si>
+  <si>
+    <t>Mus Mualim, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Naftali Mansim, SE, M.Sc</t>
+  </si>
+  <si>
+    <t>Novita Panambe, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Nunang Lamaek May, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Nurhani Widiastuti, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Nurlaela, SE, M.Sc</t>
+  </si>
+  <si>
+    <t>Nurwidianto, SE.,M.Sc</t>
+  </si>
+  <si>
+    <t>Petrus Abraham Dimara, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Ir. Barahima, M.Si</t>
+  </si>
+  <si>
+    <t>Prof. Dr.Charly D. Heatubun, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Prof. Dr.Ir. Andoyo Supriyantono, M.Sc</t>
+  </si>
+  <si>
+    <t>Prof. Dr.Ir. Budi Santoso, MP</t>
+  </si>
+  <si>
+    <t>Prof. Dr.Ir. Sri Hartini, M.Sc</t>
+  </si>
+  <si>
+    <t>Prof. Dr.Ir. Wahyudi, M.Wood. Sc</t>
+  </si>
+  <si>
+    <t>Prof.Dr.Ir. Jacob Manusawai, M.H</t>
+  </si>
+  <si>
+    <t>Prof.Ir. Ricardo F. Tapilatu, M.Si.Ph.D</t>
+  </si>
+  <si>
+    <t>Purwaningsih, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Reinardus Liborius, S.Hut.,M.Sc</t>
+  </si>
+  <si>
+    <t>Rina Nelly Jowei, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Rintar Agus Simatupang, SE, M.Sc</t>
+  </si>
+  <si>
+    <t>Rizald Husein, SP, M.Si</t>
+  </si>
+  <si>
+    <t>Rizki Arizona, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>Rumas Alma Yap, SP, M.Si</t>
+  </si>
+  <si>
+    <t>Sarah Usman, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Sarce Babra Awom, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Selfanie Talakua, S.Pi.,M.Si</t>
+  </si>
+  <si>
+    <t>Simon P.O. Leatemia, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Simson Werimon, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Sisilia Maria Parinusa, S.P.,M.Si</t>
+  </si>
+  <si>
+    <t>Siti Aisah Bauw, SE, M.Sc</t>
+  </si>
+  <si>
+    <t>Srihartati Harto, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Suhaemi, S.Ik.,M.Si</t>
+  </si>
+  <si>
+    <t>Susanti Tasik, S.Hut, M.Biotech</t>
+  </si>
+  <si>
+    <t>Syarifuddin, SE, AK, M.Si</t>
+  </si>
+  <si>
+    <t>Ted Matheus Suruan, SE., M.Si</t>
+  </si>
+  <si>
+    <t>Tresia Sonya Tururaja,S.IK.,M.Si</t>
+  </si>
+  <si>
+    <t>Victor Rumere, SE,M.Si</t>
+  </si>
+  <si>
+    <t>Wolfram Yahya Mofu, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>Yafed Muyam, SP, M.Si</t>
+  </si>
+  <si>
+    <t>Yehiel H. Dasmasela, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Yohanes Y. Rahawarin, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Yori Turu Toja, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>Yubelince Y. Runtuboi, S.Hut, M.Sc</t>
+  </si>
+  <si>
+    <t>Yulius Heri Saptomo, SE, M.Si</t>
+  </si>
+  <si>
+    <t>Yuyu Rahayu, S.Hut, M,Sc</t>
+  </si>
+  <si>
+    <t>Yuyun Puji Rahayu, S.P, M.Dev.Eco (Adv)</t>
+  </si>
+  <si>
+    <t>Zulfikar Mardiyadi, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>0005018107</t>
   </si>
 </sst>
 </file>
@@ -1724,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16483FC-62EB-4506-A3E1-D0D0FD970BC9}">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C422"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F349" sqref="F349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4125,6 +5355,2261 @@
         <v>29</v>
       </c>
     </row>
+    <row r="218" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C218">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C219">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C220">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C221">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C222">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C223">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C224">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C225">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C226">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C227">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C228">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C229">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C230">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C231">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C234">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C235">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C236">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C237">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C238">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C239">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C240">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C241">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C242">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C243">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C244">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C245">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C246">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C247">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C248">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C249">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C250">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C251">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C252">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C253">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C254">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C255">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C256">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C257">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C258">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C259">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C260">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C261">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C262">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C263">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C264">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C265">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C266">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C267">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C268">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C269">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C270">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C271">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C272">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C273">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C274">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C275">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C276">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C277">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C278">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C279">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C280">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C281">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C282">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C283">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C284">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C285">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C286">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C287">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C288">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C289">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C290">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C291">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C292">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C293">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C294">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C295">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C296">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C297">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C298">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C299">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C300">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C301">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C302">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C303">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C304">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C305">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C306">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C307">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C308">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C309">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C310">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C311">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C312">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C313">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C314">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C315">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C316">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C317">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C318">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C319">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C320">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C321">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C322">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C323">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C324">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C325">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C326">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C327">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C328">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C329">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C330">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C331">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C332">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C333">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C334">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C335">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C336">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C337">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C338">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C339">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C340">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C341">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C342">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C343">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C344">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C345">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C346">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C347">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C348">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C349">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C350">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C351">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C352">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C353">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C354">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C355">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C356">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C357">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C358">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C359">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C360">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C361">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C362">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C363">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C364">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C365">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C366">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C367">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C368">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C369">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C370">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C371">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C372">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C373">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C374">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C375">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C376">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C377">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C378">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C379">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C380">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C381">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C382">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C383">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C384">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C385">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C386">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C387">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C388">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C389">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C390">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C391">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C392">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C393">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C394">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C395">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C396">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C397">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C398">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C399">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C400">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C401">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C402">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C403">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C404">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C405">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C406">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C407">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C408">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C409">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C410">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C411">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C412">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C413">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C414">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C415">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C416">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C417">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C418">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C419">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C420">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C421">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C422">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.88" right="0.51181102362204722" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/DataExcel/dosen.xlsx
+++ b/public/DataExcel/dosen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT SIPPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2865C0-DE28-49B4-BEA1-CBED440C3E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA998DFC-A77A-48F3-8050-21A35BA20ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="15" r:id="rId1"/>
@@ -2957,7 +2957,7 @@
   <dimension ref="A1:C422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F349" sqref="F349"/>
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/public/DataExcel/dosen.xlsx
+++ b/public/DataExcel/dosen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT SIPPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA998DFC-A77A-48F3-8050-21A35BA20ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F79692-55F5-4F2E-B89F-93D2A670BEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="1025">
   <si>
     <t>0020046406</t>
   </si>
@@ -2561,19 +2561,569 @@
   </si>
   <si>
     <t>0005018107</t>
+  </si>
+  <si>
+    <t>0026078902</t>
+  </si>
+  <si>
+    <t>AGATHA CECILIA MATURBONGS, SSI, MSC</t>
+  </si>
+  <si>
+    <t>0031088207</t>
+  </si>
+  <si>
+    <t>AI SITI PATIMAH, ST. M.SC</t>
+  </si>
+  <si>
+    <t>0016088808</t>
+  </si>
+  <si>
+    <t>Ailin Anastasia Yarangga,ST.,MT</t>
+  </si>
+  <si>
+    <t>0020108809</t>
+  </si>
+  <si>
+    <t>Akhiruddin, SPD, MPD</t>
+  </si>
+  <si>
+    <t>8813910016</t>
+  </si>
+  <si>
+    <t>Alberto.Y.Tangke Allo,S.Si.,M.Pd</t>
+  </si>
+  <si>
+    <t>0027069007</t>
+  </si>
+  <si>
+    <t>Alfhons Daniel Sirampun,S.Si.,M.Si</t>
+  </si>
+  <si>
+    <t>0030088503</t>
+  </si>
+  <si>
+    <t>Anastasia Gustiarini,S.Hut.,M.Si</t>
+  </si>
+  <si>
+    <t>0013018307</t>
+  </si>
+  <si>
+    <t>ANDREAN H WOSPAKRIK, SP, MSC</t>
+  </si>
+  <si>
+    <t>0029049009</t>
+  </si>
+  <si>
+    <t>Angelina Majesty Randa,ST.,MT</t>
+  </si>
+  <si>
+    <t>0030128707</t>
+  </si>
+  <si>
+    <t>Aradea Bujana Kusuma, S.Si.,M.Si</t>
+  </si>
+  <si>
+    <t>0003098803</t>
+  </si>
+  <si>
+    <t>Ardha Puspita Sari,S.P.,M.Si</t>
+  </si>
+  <si>
+    <t>0029048804</t>
+  </si>
+  <si>
+    <t>ARIF SETIAWAN, ST, MT</t>
+  </si>
+  <si>
+    <t>0003098908</t>
+  </si>
+  <si>
+    <t>Arniana Anwar, SHut, M.Si</t>
+  </si>
+  <si>
+    <t>0005069302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayu Pranata, S.Pi.,MP </t>
+  </si>
+  <si>
+    <t>1402038701</t>
+  </si>
+  <si>
+    <t>Bertha Ollin Paga,S.TP.,M.Si</t>
+  </si>
+  <si>
+    <t>1418128601</t>
+  </si>
+  <si>
+    <t>Christian Dwi Suhendra,ST.,M.Cs</t>
+  </si>
+  <si>
+    <t>0915068602</t>
+  </si>
+  <si>
+    <t>Darmawanto Uria,S.P.,M.Si</t>
+  </si>
+  <si>
+    <t>0002128908</t>
+  </si>
+  <si>
+    <t>Desirianingsih.H.parastri,SE.,M.Sc.,Ak</t>
+  </si>
+  <si>
+    <t>0030088906</t>
+  </si>
+  <si>
+    <t>dr. Andrew Ivan Humonobe, M.BIOMED</t>
+  </si>
+  <si>
+    <t>0026088703</t>
+  </si>
+  <si>
+    <t>dr. Christina Agusta Deviana Tanifan, M.BIOMED</t>
+  </si>
+  <si>
+    <t>Dr. Eng. Hendri, S.Si.,M.Si</t>
+  </si>
+  <si>
+    <t>0020027702</t>
+  </si>
+  <si>
+    <t>Dr. Evi Warintan Saragih, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>0026048504</t>
+  </si>
+  <si>
+    <t>dr. Herlina Yulidia</t>
+  </si>
+  <si>
+    <t>0017058907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr. Linda Meydi kaseger, M.KK   </t>
+  </si>
+  <si>
+    <t>0029078209</t>
+  </si>
+  <si>
+    <t>dr. Nurasi Lidya Marpaung, M.BIOMED</t>
+  </si>
+  <si>
+    <t>0020028905</t>
+  </si>
+  <si>
+    <t>dr. Pater Dean Adare, M.BIOMED</t>
+  </si>
+  <si>
+    <t>0019018804</t>
+  </si>
+  <si>
+    <t>dr. Sarah Hagia Lestari, M.BIOMED</t>
+  </si>
+  <si>
+    <t>0014076405</t>
+  </si>
+  <si>
+    <t>Dr.Drs. Bimo Budi Santoso, M.Sc</t>
+  </si>
+  <si>
+    <t>0023116009</t>
+  </si>
+  <si>
+    <t>Dra.Evelin Lompoliu, M.Si</t>
+  </si>
+  <si>
+    <t>0011125904</t>
+  </si>
+  <si>
+    <t>Drs.Hermanus Yowel Sikoway</t>
+  </si>
+  <si>
+    <t>0011069101</t>
+  </si>
+  <si>
+    <t>Duaitd Kolibongso, S.Pi.,M.Si</t>
+  </si>
+  <si>
+    <t>0015099105</t>
+  </si>
+  <si>
+    <t>Ebeneser W. Simamora, spd, mpd</t>
+  </si>
+  <si>
+    <t>0005088207</t>
+  </si>
+  <si>
+    <t>Elisabeth Lenny Marit,SE.,M.Sc</t>
+  </si>
+  <si>
+    <t>0020097509</t>
+  </si>
+  <si>
+    <t>Els Tieneke Rieke, SP., M.Si.,Ph.D</t>
+  </si>
+  <si>
+    <t>0018079303</t>
+  </si>
+  <si>
+    <t>Erikha.M.Mayzarah,S.Pd.,M.Si</t>
+  </si>
+  <si>
+    <t>1207019301</t>
+  </si>
+  <si>
+    <t>Firmansyah,S.Pd.,M.Pd</t>
+  </si>
+  <si>
+    <t>0027057905</t>
+  </si>
+  <si>
+    <t>Frandz Rumbiak Pawere, S.Pt, M.Sc</t>
+  </si>
+  <si>
+    <t>0019078403</t>
+  </si>
+  <si>
+    <t>Frenly Wehantouw,S.Si.,M.Si</t>
+  </si>
+  <si>
+    <t>0004097205</t>
+  </si>
+  <si>
+    <t>Hengki Mofu, S.Pd.,MA</t>
+  </si>
+  <si>
+    <t>0024098706</t>
+  </si>
+  <si>
+    <t>Inna Martha Rumainum,S.P.,M.Sc.,Ph.D</t>
+  </si>
+  <si>
+    <t>0023116408</t>
+  </si>
+  <si>
+    <t>Ir. Surianto Bataradewa, M.Si</t>
+  </si>
+  <si>
+    <t>0020019006</t>
+  </si>
+  <si>
+    <t>Irfan Irnandi,S.Si.,M.Sc</t>
+  </si>
+  <si>
+    <t>0020118504</t>
+  </si>
+  <si>
+    <t>Jamius Bin Stepanus</t>
+  </si>
+  <si>
+    <t>0024028406</t>
+  </si>
+  <si>
+    <t>Johanis Paulus Kilmaskossu, S.Si.,M.Sc</t>
+  </si>
+  <si>
+    <t>0024069203</t>
+  </si>
+  <si>
+    <t>Junianto SESA, SSI, MSI</t>
+  </si>
+  <si>
+    <t>0011098802</t>
+  </si>
+  <si>
+    <t>Kaleb Amaghi Yenusi, S.Si.,M.Sc</t>
+  </si>
+  <si>
+    <t>0017079108</t>
+  </si>
+  <si>
+    <t>KARMILA LAITUPA, ST, MT</t>
+  </si>
+  <si>
+    <t>0002089208</t>
+  </si>
+  <si>
+    <t>Kartika Yuliana Mandowen,S.Pd.,M.Pd</t>
+  </si>
+  <si>
+    <t>1410108501</t>
+  </si>
+  <si>
+    <t>LA ODE MUHLIS, SPD, MSI</t>
+  </si>
+  <si>
+    <t>0002067312</t>
+  </si>
+  <si>
+    <t>LAMBOK H. MAGDALENA MANIK, SSOS, MSI</t>
+  </si>
+  <si>
+    <t>0011059107</t>
+  </si>
+  <si>
+    <t>Leonardo Davinci Massolo, ST.,M.Sc</t>
+  </si>
+  <si>
+    <t>0018098906</t>
+  </si>
+  <si>
+    <t>Lion Ferdinand Marini,ST.,M.MT</t>
+  </si>
+  <si>
+    <t>0023118410</t>
+  </si>
+  <si>
+    <t>Luckhy.N.Anastasya Lotte,S.Sos.,M.M</t>
+  </si>
+  <si>
+    <t>0026038109</t>
+  </si>
+  <si>
+    <t>MARJAN BATO, S.KEL, MSI</t>
+  </si>
+  <si>
+    <t>0013038107</t>
+  </si>
+  <si>
+    <t>MARTEN MATULESSY, SPI, MSI</t>
+  </si>
+  <si>
+    <t>2030119202</t>
+  </si>
+  <si>
+    <t>Muhammad Fajar Islam,S.Pd.,M.Si</t>
+  </si>
+  <si>
+    <t>2125019301</t>
+  </si>
+  <si>
+    <t>Muhammad Hussen, S.S.,M.S</t>
+  </si>
+  <si>
+    <t>0005048606</t>
+  </si>
+  <si>
+    <t>MUTAKIM, SHUT, MSI</t>
+  </si>
+  <si>
+    <t>0012128808</t>
+  </si>
+  <si>
+    <t>Novelina Tampubolon,S.Hut.,M.Si</t>
+  </si>
+  <si>
+    <t>0025088604</t>
+  </si>
+  <si>
+    <t>Nur Alzair, ST.,M.Sc</t>
+  </si>
+  <si>
+    <t>0004088807</t>
+  </si>
+  <si>
+    <t>Praditya Nugraha, S.T.,M.T</t>
+  </si>
+  <si>
+    <t>0011016403</t>
+  </si>
+  <si>
+    <t>Prof.Dr.Ir. Roni Bawole, M.Si</t>
+  </si>
+  <si>
+    <t>0017128501</t>
+  </si>
+  <si>
+    <t>Radite Yogaswara, SSI, MSC</t>
+  </si>
+  <si>
+    <t>0004119105</t>
+  </si>
+  <si>
+    <t>RANDA J. PUTRA MELATO, ST, M.PET.ENG</t>
+  </si>
+  <si>
+    <t>0022018105</t>
+  </si>
+  <si>
+    <t>RESTU TANDIRERUNG, ST, M.ENG</t>
+  </si>
+  <si>
+    <t>0003098203</t>
+  </si>
+  <si>
+    <t>Rina Kurana Awom, S.Sos.,M.Si</t>
+  </si>
+  <si>
+    <t>0006108907</t>
+  </si>
+  <si>
+    <t>Rio.Octovinary .Pramanagara,ST.,M.En</t>
+  </si>
+  <si>
+    <t>0021079005</t>
+  </si>
+  <si>
+    <t>Riris Setyowati,S.Si.,M.Sc</t>
+  </si>
+  <si>
+    <t>0025117302</t>
+  </si>
+  <si>
+    <t>RISMA ULI SITUNGKIR, SP, MSI</t>
+  </si>
+  <si>
+    <t>0014108907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosdiana Naibey,S.Kep.,M.Sc </t>
+  </si>
+  <si>
+    <t>0007048908</t>
+  </si>
+  <si>
+    <t>RUDI HARTONO, ST, MT</t>
+  </si>
+  <si>
+    <t>1201118801</t>
+  </si>
+  <si>
+    <t>Sabir Sumarna, SSI, MSI</t>
+  </si>
+  <si>
+    <t>0027099102</t>
+  </si>
+  <si>
+    <t>Satryo Pringgo Sejati,S.IP.,M.HI</t>
+  </si>
+  <si>
+    <t>8814510016</t>
+  </si>
+  <si>
+    <t>Silvia Hanna.K.Sirait,S.Si.,M.Sc</t>
+  </si>
+  <si>
+    <t>8824510016</t>
+  </si>
+  <si>
+    <t>Sri R. Sebayang, SPD, MPD</t>
+  </si>
+  <si>
+    <t>0030119103</t>
+  </si>
+  <si>
+    <t>Suardi Sahid, SPD, MPD</t>
+  </si>
+  <si>
+    <t>0026109103</t>
+  </si>
+  <si>
+    <t>Supardi,S.Hut.,M.Si</t>
+  </si>
+  <si>
+    <t>0014098405</t>
+  </si>
+  <si>
+    <t>Tobias Tobi Tukan,S.Si.,M.Si</t>
+  </si>
+  <si>
+    <t>8862040017</t>
+  </si>
+  <si>
+    <t>TUTIK HANDAYANI, SPI, MSI</t>
+  </si>
+  <si>
+    <t>0005029103</t>
+  </si>
+  <si>
+    <t>Verawati Simanjuntak, S.E.,M.Acc</t>
+  </si>
+  <si>
+    <t>1213018801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanti Pesurnay,S.Si.,M.Kes                                </t>
+  </si>
+  <si>
+    <t>0021019106</t>
+  </si>
+  <si>
+    <t>Yenni Yulia Andriani,S.S.,M.A</t>
+  </si>
+  <si>
+    <t>0003118905</t>
+  </si>
+  <si>
+    <t>Yoga Charol.V.Tethool,ST.,MT</t>
+  </si>
+  <si>
+    <t>0017058808</t>
+  </si>
+  <si>
+    <t>Yohanes.T.Sagisolo,ST.,MT</t>
+  </si>
+  <si>
+    <t>0011069304</t>
+  </si>
+  <si>
+    <t>Yunita Pare Rombe, SSI, MSI</t>
+  </si>
+  <si>
+    <t>BENNY ABRAHAM BUNGASALLU, ST, M.SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarlo Worabai, S.Hut.,M.Si </t>
+  </si>
+  <si>
+    <t>dr. Harry Allan Papendang, M.BIOMED</t>
+  </si>
+  <si>
+    <t>drh.Noveling inriani, S.Kh</t>
+  </si>
+  <si>
+    <t>Herman A. Manusawai, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>ISMIYATI, ST, MT</t>
+  </si>
+  <si>
+    <t>MUH. FAJAR ISLAM, SPD, MSI</t>
+  </si>
+  <si>
+    <t>Nelly Mastina Gultom, SP, M.Si</t>
+  </si>
+  <si>
+    <t>YAN BALYO, SPD,AK,MSI</t>
+  </si>
+  <si>
+    <t>Yubelina.Y.H.Mamoribo,SE.,M.Ak</t>
+  </si>
+  <si>
+    <t>Yunita Palinggi,S.P.,M.Agr</t>
+  </si>
+  <si>
+    <t>0019077706</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2600,25 +3150,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CDFFD113-2E14-4D93-B765-745787A6F86E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2954,25 +3530,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16483FC-62EB-4506-A3E1-D0D0FD970BC9}">
-  <dimension ref="A1:C422"/>
+  <dimension ref="A1:C518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2"/>
-    <col min="2" max="2" width="43.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1"/>
+    <col min="2" max="2" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="15.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C1">
@@ -2980,10 +3556,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C2">
@@ -2991,10 +3567,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C3">
@@ -3002,10 +3578,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C4">
@@ -3013,10 +3589,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C5">
@@ -3024,10 +3600,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C6">
@@ -3035,10 +3611,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C7">
@@ -3046,10 +3622,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C8">
@@ -3057,10 +3633,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C9">
@@ -3068,10 +3644,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C10">
@@ -3079,10 +3655,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C11">
@@ -3090,10 +3666,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C12">
@@ -3101,10 +3677,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C13">
@@ -3112,10 +3688,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C14">
@@ -3123,10 +3699,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C15">
@@ -3134,10 +3710,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C16">
@@ -3145,10 +3721,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C17">
@@ -3156,10 +3732,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C18">
@@ -3167,10 +3743,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C19">
@@ -3178,10 +3754,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C20">
@@ -3189,10 +3765,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C21">
@@ -3200,10 +3776,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C22">
@@ -3211,10 +3787,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C23">
@@ -3222,10 +3798,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C24">
@@ -3233,10 +3809,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C25">
@@ -3244,10 +3820,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C26">
@@ -3255,10 +3831,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C27">
@@ -3266,10 +3842,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C28">
@@ -3277,10 +3853,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C29">
@@ -3288,10 +3864,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C30">
@@ -3299,10 +3875,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C31">
@@ -3310,10 +3886,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C32">
@@ -3321,10 +3897,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C33">
@@ -3332,10 +3908,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C34">
@@ -3343,10 +3919,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C35">
@@ -3354,10 +3930,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C36">
@@ -3365,10 +3941,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C37">
@@ -3376,10 +3952,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C38">
@@ -3387,10 +3963,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C39">
@@ -3398,10 +3974,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C40">
@@ -3409,10 +3985,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C41">
@@ -3420,10 +3996,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C42">
@@ -3431,10 +4007,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C43">
@@ -3442,10 +4018,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C44">
@@ -3453,10 +4029,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C45">
@@ -3464,10 +4040,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C46">
@@ -3475,10 +4051,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C47">
@@ -3486,10 +4062,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>265</v>
       </c>
       <c r="C48">
@@ -3497,10 +4073,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C49">
@@ -3508,10 +4084,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C50">
@@ -3519,10 +4095,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C51">
@@ -3530,10 +4106,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C52">
@@ -3541,10 +4117,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C53">
@@ -3552,10 +4128,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C54">
@@ -3563,10 +4139,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C55">
@@ -3574,10 +4150,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C56">
@@ -3585,10 +4161,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C57">
@@ -3596,10 +4172,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C58">
@@ -3607,10 +4183,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C59">
@@ -3618,10 +4194,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C60">
@@ -3629,10 +4205,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>278</v>
       </c>
       <c r="C61">
@@ -3640,10 +4216,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C62">
@@ -3651,10 +4227,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C63">
@@ -3662,10 +4238,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C64">
@@ -3673,10 +4249,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>282</v>
       </c>
       <c r="C65">
@@ -3684,10 +4260,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C66">
@@ -3695,10 +4271,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C67">
@@ -3706,10 +4282,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C68">
@@ -3717,10 +4293,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C69">
@@ -3728,10 +4304,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C70">
@@ -3739,10 +4315,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C71">
@@ -3750,10 +4326,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C72">
@@ -3761,10 +4337,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C73">
@@ -3772,10 +4348,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C74">
@@ -3783,10 +4359,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C75">
@@ -3794,10 +4370,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C76">
@@ -3805,10 +4381,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C77">
@@ -3816,10 +4392,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C78">
@@ -3827,10 +4403,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C79">
@@ -3838,10 +4414,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C80">
@@ -3849,10 +4425,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C81">
@@ -3860,10 +4436,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C82">
@@ -3871,10 +4447,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C83">
@@ -3882,10 +4458,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C84">
@@ -3893,10 +4469,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C85">
@@ -3904,10 +4480,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C86">
@@ -3915,10 +4491,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>303</v>
       </c>
       <c r="C87">
@@ -3926,10 +4502,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C88">
@@ -3937,10 +4513,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>305</v>
       </c>
       <c r="C89">
@@ -3948,10 +4524,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C90">
@@ -3959,10 +4535,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C91">
@@ -3970,10 +4546,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C92">
@@ -3981,10 +4557,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C93">
@@ -3992,10 +4568,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C94">
@@ -4003,10 +4579,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>311</v>
       </c>
       <c r="C95">
@@ -4014,10 +4590,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C96">
@@ -4025,10 +4601,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>313</v>
       </c>
       <c r="C97">
@@ -4036,10 +4612,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C98">
@@ -4047,10 +4623,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>315</v>
       </c>
       <c r="C99">
@@ -4058,10 +4634,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C100">
@@ -4069,10 +4645,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C101">
@@ -4080,10 +4656,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C102">
@@ -4091,10 +4667,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C103">
@@ -4102,10 +4678,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C104">
@@ -4113,10 +4689,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C105">
@@ -4124,10 +4700,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C106">
@@ -4135,10 +4711,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C107">
@@ -4146,10 +4722,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C108">
@@ -4157,10 +4733,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C109">
@@ -4168,10 +4744,10 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C110">
@@ -4179,10 +4755,10 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>327</v>
       </c>
       <c r="C111">
@@ -4190,10 +4766,10 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C112">
@@ -4201,10 +4777,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>329</v>
       </c>
       <c r="C113">
@@ -4212,10 +4788,10 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C114">
@@ -4223,10 +4799,10 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C115">
@@ -4234,10 +4810,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C116">
@@ -4245,10 +4821,10 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C117">
@@ -4256,10 +4832,10 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C118">
@@ -4267,10 +4843,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>335</v>
       </c>
       <c r="C119">
@@ -4278,10 +4854,10 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C120">
@@ -4289,10 +4865,10 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C121">
@@ -4300,10 +4876,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>338</v>
       </c>
       <c r="C122">
@@ -4311,10 +4887,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C123">
@@ -4322,10 +4898,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C124">
@@ -4333,10 +4909,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C125">
@@ -4344,10 +4920,10 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>342</v>
       </c>
       <c r="C126">
@@ -4355,10 +4931,10 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>343</v>
       </c>
       <c r="C127">
@@ -4366,10 +4942,10 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>344</v>
       </c>
       <c r="C128">
@@ -4377,10 +4953,10 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C129">
@@ -4388,10 +4964,10 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C130">
@@ -4399,10 +4975,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>347</v>
       </c>
       <c r="C131">
@@ -4410,10 +4986,10 @@
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C132">
@@ -4421,10 +4997,10 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>349</v>
       </c>
       <c r="C133">
@@ -4432,10 +5008,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C134">
@@ -4443,10 +5019,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>351</v>
       </c>
       <c r="C135">
@@ -4454,10 +5030,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>352</v>
       </c>
       <c r="C136">
@@ -4465,10 +5041,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>353</v>
       </c>
       <c r="C137">
@@ -4476,10 +5052,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>354</v>
       </c>
       <c r="C138">
@@ -4487,10 +5063,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>355</v>
       </c>
       <c r="C139">
@@ -4498,10 +5074,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>356</v>
       </c>
       <c r="C140">
@@ -4509,10 +5085,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>357</v>
       </c>
       <c r="C141">
@@ -4520,10 +5096,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C142">
@@ -4531,10 +5107,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>359</v>
       </c>
       <c r="C143">
@@ -4542,10 +5118,10 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C144">
@@ -4553,10 +5129,10 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>361</v>
       </c>
       <c r="C145">
@@ -4564,10 +5140,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>362</v>
       </c>
       <c r="C146">
@@ -4575,10 +5151,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>363</v>
       </c>
       <c r="C147">
@@ -4586,10 +5162,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C148">
@@ -4597,10 +5173,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C149">
@@ -4608,10 +5184,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>366</v>
       </c>
       <c r="C150">
@@ -4619,10 +5195,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C151">
@@ -4630,10 +5206,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C152">
@@ -4641,10 +5217,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C153">
@@ -4652,10 +5228,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>370</v>
       </c>
       <c r="C154">
@@ -4663,10 +5239,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C155">
@@ -4674,10 +5250,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>372</v>
       </c>
       <c r="C156">
@@ -4685,10 +5261,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C157">
@@ -4696,10 +5272,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C158">
@@ -4707,10 +5283,10 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>375</v>
       </c>
       <c r="C159">
@@ -4718,10 +5294,10 @@
       </c>
     </row>
     <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>376</v>
       </c>
       <c r="C160">
@@ -4729,10 +5305,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>377</v>
       </c>
       <c r="C161">
@@ -4740,10 +5316,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>378</v>
       </c>
       <c r="C162">
@@ -4751,10 +5327,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C163">
@@ -4762,10 +5338,10 @@
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>380</v>
       </c>
       <c r="C164">
@@ -4773,10 +5349,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>381</v>
       </c>
       <c r="C165">
@@ -4784,10 +5360,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>382</v>
       </c>
       <c r="C166">
@@ -4795,10 +5371,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C167">
@@ -4806,10 +5382,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>384</v>
       </c>
       <c r="C168">
@@ -4817,10 +5393,10 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>385</v>
       </c>
       <c r="C169">
@@ -4828,10 +5404,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>386</v>
       </c>
       <c r="C170">
@@ -4839,10 +5415,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>387</v>
       </c>
       <c r="C171">
@@ -4850,10 +5426,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>388</v>
       </c>
       <c r="C172">
@@ -4861,10 +5437,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>389</v>
       </c>
       <c r="C173">
@@ -4872,10 +5448,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>390</v>
       </c>
       <c r="C174">
@@ -4883,10 +5459,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C175">
@@ -4894,10 +5470,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>392</v>
       </c>
       <c r="C176">
@@ -4905,10 +5481,10 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C177">
@@ -4916,10 +5492,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>394</v>
       </c>
       <c r="C178">
@@ -4927,10 +5503,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>395</v>
       </c>
       <c r="C179">
@@ -4938,10 +5514,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>396</v>
       </c>
       <c r="C180">
@@ -4949,10 +5525,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C181">
@@ -4960,10 +5536,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C182">
@@ -4971,10 +5547,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>399</v>
       </c>
       <c r="C183">
@@ -4982,10 +5558,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>400</v>
       </c>
       <c r="C184">
@@ -4993,10 +5569,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>401</v>
       </c>
       <c r="C185">
@@ -5004,10 +5580,10 @@
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>402</v>
       </c>
       <c r="C186">
@@ -5015,10 +5591,10 @@
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>403</v>
       </c>
       <c r="C187">
@@ -5026,10 +5602,10 @@
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>404</v>
       </c>
       <c r="C188">
@@ -5037,10 +5613,10 @@
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>405</v>
       </c>
       <c r="C189">
@@ -5048,10 +5624,10 @@
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>406</v>
       </c>
       <c r="C190">
@@ -5059,10 +5635,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>407</v>
       </c>
       <c r="C191">
@@ -5070,10 +5646,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C192">
@@ -5081,10 +5657,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C193">
@@ -5092,10 +5668,10 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>410</v>
       </c>
       <c r="C194">
@@ -5103,10 +5679,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C195">
@@ -5114,10 +5690,10 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>412</v>
       </c>
       <c r="C196">
@@ -5125,10 +5701,10 @@
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>413</v>
       </c>
       <c r="C197">
@@ -5136,10 +5712,10 @@
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>414</v>
       </c>
       <c r="C198">
@@ -5147,10 +5723,10 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>415</v>
       </c>
       <c r="C199">
@@ -5158,10 +5734,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>416</v>
       </c>
       <c r="C200">
@@ -5169,10 +5745,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>417</v>
       </c>
       <c r="C201">
@@ -5180,10 +5756,10 @@
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>418</v>
       </c>
       <c r="C202">
@@ -5191,10 +5767,10 @@
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>419</v>
       </c>
       <c r="C203">
@@ -5202,10 +5778,10 @@
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C204">
@@ -5213,10 +5789,10 @@
       </c>
     </row>
     <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>421</v>
       </c>
       <c r="C205">
@@ -5224,10 +5800,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>422</v>
       </c>
       <c r="C206">
@@ -5235,10 +5811,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="3" t="s">
         <v>423</v>
       </c>
       <c r="C207">
@@ -5246,10 +5822,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="3" t="s">
         <v>424</v>
       </c>
       <c r="C208">
@@ -5257,10 +5833,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="3" t="s">
         <v>425</v>
       </c>
       <c r="C209">
@@ -5268,10 +5844,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C210">
@@ -5279,10 +5855,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>427</v>
       </c>
       <c r="C211">
@@ -5290,10 +5866,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>428</v>
       </c>
       <c r="C212">
@@ -5301,10 +5877,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>429</v>
       </c>
       <c r="C213">
@@ -5312,10 +5888,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="3" t="s">
         <v>430</v>
       </c>
       <c r="C214">
@@ -5323,10 +5899,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>431</v>
       </c>
       <c r="C215">
@@ -5334,10 +5910,10 @@
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>432</v>
       </c>
       <c r="C216">
@@ -5345,10 +5921,10 @@
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>433</v>
       </c>
       <c r="C217">
@@ -5356,10 +5932,10 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C218">
@@ -5367,10 +5943,10 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>639</v>
       </c>
       <c r="C219">
@@ -5378,10 +5954,10 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="3" t="s">
         <v>640</v>
       </c>
       <c r="C220">
@@ -5389,10 +5965,10 @@
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="3" t="s">
         <v>641</v>
       </c>
       <c r="C221">
@@ -5400,10 +5976,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>642</v>
       </c>
       <c r="C222">
@@ -5411,10 +5987,10 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>643</v>
       </c>
       <c r="C223">
@@ -5422,10 +5998,10 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>644</v>
       </c>
       <c r="C224">
@@ -5433,10 +6009,10 @@
       </c>
     </row>
     <row r="225" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="3" t="s">
         <v>645</v>
       </c>
       <c r="C225">
@@ -5444,10 +6020,10 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="3" t="s">
         <v>646</v>
       </c>
       <c r="C226">
@@ -5455,10 +6031,10 @@
       </c>
     </row>
     <row r="227" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>647</v>
       </c>
       <c r="C227">
@@ -5466,10 +6042,10 @@
       </c>
     </row>
     <row r="228" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>648</v>
       </c>
       <c r="C228">
@@ -5477,10 +6053,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>649</v>
       </c>
       <c r="C229">
@@ -5488,10 +6064,10 @@
       </c>
     </row>
     <row r="230" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="3" t="s">
         <v>650</v>
       </c>
       <c r="C230">
@@ -5499,10 +6075,10 @@
       </c>
     </row>
     <row r="231" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>651</v>
       </c>
       <c r="C231">
@@ -5510,10 +6086,10 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>652</v>
       </c>
       <c r="C232">
@@ -5521,10 +6097,10 @@
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>653</v>
       </c>
       <c r="C233">
@@ -5532,10 +6108,10 @@
       </c>
     </row>
     <row r="234" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>654</v>
       </c>
       <c r="C234">
@@ -5543,10 +6119,10 @@
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>655</v>
       </c>
       <c r="C235">
@@ -5554,10 +6130,10 @@
       </c>
     </row>
     <row r="236" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="3" t="s">
         <v>656</v>
       </c>
       <c r="C236">
@@ -5565,10 +6141,10 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="3" t="s">
         <v>657</v>
       </c>
       <c r="C237">
@@ -5576,10 +6152,10 @@
       </c>
     </row>
     <row r="238" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="3" t="s">
         <v>658</v>
       </c>
       <c r="C238">
@@ -5587,10 +6163,10 @@
       </c>
     </row>
     <row r="239" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="3" t="s">
         <v>659</v>
       </c>
       <c r="C239">
@@ -5598,10 +6174,10 @@
       </c>
     </row>
     <row r="240" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="3" t="s">
         <v>660</v>
       </c>
       <c r="C240">
@@ -5609,10 +6185,10 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="3" t="s">
         <v>661</v>
       </c>
       <c r="C241">
@@ -5620,10 +6196,10 @@
       </c>
     </row>
     <row r="242" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="3" t="s">
         <v>662</v>
       </c>
       <c r="C242">
@@ -5631,10 +6207,10 @@
       </c>
     </row>
     <row r="243" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="3" t="s">
         <v>663</v>
       </c>
       <c r="C243">
@@ -5642,10 +6218,10 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="3" t="s">
         <v>664</v>
       </c>
       <c r="C244">
@@ -5653,10 +6229,10 @@
       </c>
     </row>
     <row r="245" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="3" t="s">
         <v>665</v>
       </c>
       <c r="C245">
@@ -5664,10 +6240,10 @@
       </c>
     </row>
     <row r="246" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C246">
@@ -5675,10 +6251,10 @@
       </c>
     </row>
     <row r="247" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>667</v>
       </c>
       <c r="C247">
@@ -5686,10 +6262,10 @@
       </c>
     </row>
     <row r="248" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="3" t="s">
         <v>668</v>
       </c>
       <c r="C248">
@@ -5697,10 +6273,10 @@
       </c>
     </row>
     <row r="249" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>669</v>
       </c>
       <c r="C249">
@@ -5708,10 +6284,10 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="3" t="s">
         <v>670</v>
       </c>
       <c r="C250">
@@ -5719,10 +6295,10 @@
       </c>
     </row>
     <row r="251" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C251">
@@ -5730,10 +6306,10 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="3" t="s">
         <v>672</v>
       </c>
       <c r="C252">
@@ -5741,10 +6317,10 @@
       </c>
     </row>
     <row r="253" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C253">
@@ -5752,10 +6328,10 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="3" t="s">
         <v>674</v>
       </c>
       <c r="C254">
@@ -5763,10 +6339,10 @@
       </c>
     </row>
     <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="3" t="s">
         <v>675</v>
       </c>
       <c r="C255">
@@ -5774,10 +6350,10 @@
       </c>
     </row>
     <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="3" t="s">
         <v>676</v>
       </c>
       <c r="C256">
@@ -5785,10 +6361,10 @@
       </c>
     </row>
     <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="3" t="s">
         <v>677</v>
       </c>
       <c r="C257">
@@ -5796,10 +6372,10 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="3" t="s">
         <v>678</v>
       </c>
       <c r="C258">
@@ -5807,10 +6383,10 @@
       </c>
     </row>
     <row r="259" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="3" t="s">
         <v>679</v>
       </c>
       <c r="C259">
@@ -5818,10 +6394,10 @@
       </c>
     </row>
     <row r="260" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="3" t="s">
         <v>680</v>
       </c>
       <c r="C260">
@@ -5829,10 +6405,10 @@
       </c>
     </row>
     <row r="261" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="3" t="s">
         <v>681</v>
       </c>
       <c r="C261">
@@ -5840,10 +6416,10 @@
       </c>
     </row>
     <row r="262" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="3" t="s">
         <v>682</v>
       </c>
       <c r="C262">
@@ -5851,10 +6427,10 @@
       </c>
     </row>
     <row r="263" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="3" t="s">
         <v>683</v>
       </c>
       <c r="C263">
@@ -5862,10 +6438,10 @@
       </c>
     </row>
     <row r="264" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="3" t="s">
         <v>684</v>
       </c>
       <c r="C264">
@@ -5873,10 +6449,10 @@
       </c>
     </row>
     <row r="265" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="3" t="s">
         <v>685</v>
       </c>
       <c r="C265">
@@ -5884,10 +6460,10 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="3" t="s">
         <v>686</v>
       </c>
       <c r="C266">
@@ -5895,10 +6471,10 @@
       </c>
     </row>
     <row r="267" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="3" t="s">
         <v>687</v>
       </c>
       <c r="C267">
@@ -5906,10 +6482,10 @@
       </c>
     </row>
     <row r="268" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="3" t="s">
         <v>688</v>
       </c>
       <c r="C268">
@@ -5917,10 +6493,10 @@
       </c>
     </row>
     <row r="269" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="3" t="s">
         <v>689</v>
       </c>
       <c r="C269">
@@ -5928,10 +6504,10 @@
       </c>
     </row>
     <row r="270" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="3" t="s">
         <v>690</v>
       </c>
       <c r="C270">
@@ -5939,10 +6515,10 @@
       </c>
     </row>
     <row r="271" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>691</v>
       </c>
       <c r="C271">
@@ -5950,10 +6526,10 @@
       </c>
     </row>
     <row r="272" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="3" t="s">
         <v>692</v>
       </c>
       <c r="C272">
@@ -5961,10 +6537,10 @@
       </c>
     </row>
     <row r="273" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="3" t="s">
         <v>693</v>
       </c>
       <c r="C273">
@@ -5972,10 +6548,10 @@
       </c>
     </row>
     <row r="274" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="3" t="s">
         <v>694</v>
       </c>
       <c r="C274">
@@ -5983,10 +6559,10 @@
       </c>
     </row>
     <row r="275" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C275">
@@ -5994,10 +6570,10 @@
       </c>
     </row>
     <row r="276" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="3" t="s">
         <v>696</v>
       </c>
       <c r="C276">
@@ -6005,10 +6581,10 @@
       </c>
     </row>
     <row r="277" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="3" t="s">
         <v>697</v>
       </c>
       <c r="C277">
@@ -6016,10 +6592,10 @@
       </c>
     </row>
     <row r="278" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C278">
@@ -6027,10 +6603,10 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="3" t="s">
         <v>699</v>
       </c>
       <c r="C279">
@@ -6038,10 +6614,10 @@
       </c>
     </row>
     <row r="280" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" s="3" t="s">
         <v>700</v>
       </c>
       <c r="C280">
@@ -6049,10 +6625,10 @@
       </c>
     </row>
     <row r="281" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" s="3" t="s">
         <v>701</v>
       </c>
       <c r="C281">
@@ -6060,10 +6636,10 @@
       </c>
     </row>
     <row r="282" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" s="3" t="s">
         <v>702</v>
       </c>
       <c r="C282">
@@ -6071,10 +6647,10 @@
       </c>
     </row>
     <row r="283" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" s="3" t="s">
         <v>703</v>
       </c>
       <c r="C283">
@@ -6082,10 +6658,10 @@
       </c>
     </row>
     <row r="284" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" s="3" t="s">
         <v>704</v>
       </c>
       <c r="C284">
@@ -6093,10 +6669,10 @@
       </c>
     </row>
     <row r="285" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" s="3" t="s">
         <v>705</v>
       </c>
       <c r="C285">
@@ -6104,10 +6680,10 @@
       </c>
     </row>
     <row r="286" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" s="3" t="s">
         <v>706</v>
       </c>
       <c r="C286">
@@ -6115,10 +6691,10 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" s="3" t="s">
         <v>707</v>
       </c>
       <c r="C287">
@@ -6126,10 +6702,10 @@
       </c>
     </row>
     <row r="288" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" s="3" t="s">
         <v>708</v>
       </c>
       <c r="C288">
@@ -6137,10 +6713,10 @@
       </c>
     </row>
     <row r="289" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C289">
@@ -6148,10 +6724,10 @@
       </c>
     </row>
     <row r="290" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" s="3" t="s">
         <v>710</v>
       </c>
       <c r="C290">
@@ -6159,10 +6735,10 @@
       </c>
     </row>
     <row r="291" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" s="3" t="s">
         <v>711</v>
       </c>
       <c r="C291">
@@ -6170,10 +6746,10 @@
       </c>
     </row>
     <row r="292" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" s="3" t="s">
         <v>712</v>
       </c>
       <c r="C292">
@@ -6181,10 +6757,10 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" s="3" t="s">
         <v>713</v>
       </c>
       <c r="C293">
@@ -6192,10 +6768,10 @@
       </c>
     </row>
     <row r="294" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" s="3" t="s">
         <v>714</v>
       </c>
       <c r="C294">
@@ -6203,10 +6779,10 @@
       </c>
     </row>
     <row r="295" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" s="3" t="s">
         <v>715</v>
       </c>
       <c r="C295">
@@ -6214,10 +6790,10 @@
       </c>
     </row>
     <row r="296" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" s="3" t="s">
         <v>716</v>
       </c>
       <c r="C296">
@@ -6225,10 +6801,10 @@
       </c>
     </row>
     <row r="297" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" s="3" t="s">
         <v>717</v>
       </c>
       <c r="C297">
@@ -6236,10 +6812,10 @@
       </c>
     </row>
     <row r="298" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" s="3" t="s">
         <v>718</v>
       </c>
       <c r="C298">
@@ -6247,10 +6823,10 @@
       </c>
     </row>
     <row r="299" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" s="3" t="s">
         <v>719</v>
       </c>
       <c r="C299">
@@ -6258,10 +6834,10 @@
       </c>
     </row>
     <row r="300" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" s="3" t="s">
         <v>720</v>
       </c>
       <c r="C300">
@@ -6269,10 +6845,10 @@
       </c>
     </row>
     <row r="301" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" s="3" t="s">
         <v>721</v>
       </c>
       <c r="C301">
@@ -6280,10 +6856,10 @@
       </c>
     </row>
     <row r="302" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" s="3" t="s">
         <v>722</v>
       </c>
       <c r="C302">
@@ -6291,10 +6867,10 @@
       </c>
     </row>
     <row r="303" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" s="3" t="s">
         <v>723</v>
       </c>
       <c r="C303">
@@ -6302,10 +6878,10 @@
       </c>
     </row>
     <row r="304" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" s="3" t="s">
         <v>724</v>
       </c>
       <c r="C304">
@@ -6313,10 +6889,10 @@
       </c>
     </row>
     <row r="305" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" s="3" t="s">
         <v>725</v>
       </c>
       <c r="C305">
@@ -6324,10 +6900,10 @@
       </c>
     </row>
     <row r="306" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" s="3" t="s">
         <v>726</v>
       </c>
       <c r="C306">
@@ -6335,10 +6911,10 @@
       </c>
     </row>
     <row r="307" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" s="3" t="s">
         <v>727</v>
       </c>
       <c r="C307">
@@ -6346,10 +6922,10 @@
       </c>
     </row>
     <row r="308" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" s="3" t="s">
         <v>728</v>
       </c>
       <c r="C308">
@@ -6357,10 +6933,10 @@
       </c>
     </row>
     <row r="309" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="3" t="s">
         <v>729</v>
       </c>
       <c r="C309">
@@ -6368,10 +6944,10 @@
       </c>
     </row>
     <row r="310" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" s="3" t="s">
         <v>730</v>
       </c>
       <c r="C310">
@@ -6379,10 +6955,10 @@
       </c>
     </row>
     <row r="311" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" s="3" t="s">
         <v>731</v>
       </c>
       <c r="C311">
@@ -6390,10 +6966,10 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B312" s="3" t="s">
         <v>732</v>
       </c>
       <c r="C312">
@@ -6401,10 +6977,10 @@
       </c>
     </row>
     <row r="313" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" s="3" t="s">
         <v>733</v>
       </c>
       <c r="C313">
@@ -6412,32 +6988,32 @@
       </c>
     </row>
     <row r="314" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" s="3" t="s">
         <v>734</v>
       </c>
       <c r="C314">
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A315" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B315" s="4" t="s">
+    <row r="315" spans="1:3" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A315" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B315" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="9">
         <v>37</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B316" s="3" t="s">
         <v>736</v>
       </c>
       <c r="C316">
@@ -6445,10 +7021,10 @@
       </c>
     </row>
     <row r="317" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" s="3" t="s">
         <v>737</v>
       </c>
       <c r="C317">
@@ -6456,10 +7032,10 @@
       </c>
     </row>
     <row r="318" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" s="3" t="s">
         <v>738</v>
       </c>
       <c r="C318">
@@ -6467,10 +7043,10 @@
       </c>
     </row>
     <row r="319" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B319" s="3" t="s">
         <v>739</v>
       </c>
       <c r="C319">
@@ -6478,10 +7054,10 @@
       </c>
     </row>
     <row r="320" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" s="3" t="s">
         <v>740</v>
       </c>
       <c r="C320">
@@ -6489,10 +7065,10 @@
       </c>
     </row>
     <row r="321" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B321" s="3" t="s">
         <v>741</v>
       </c>
       <c r="C321">
@@ -6500,10 +7076,10 @@
       </c>
     </row>
     <row r="322" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" s="3" t="s">
         <v>742</v>
       </c>
       <c r="C322">
@@ -6511,10 +7087,10 @@
       </c>
     </row>
     <row r="323" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" s="3" t="s">
         <v>743</v>
       </c>
       <c r="C323">
@@ -6522,10 +7098,10 @@
       </c>
     </row>
     <row r="324" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B324" s="3" t="s">
         <v>744</v>
       </c>
       <c r="C324">
@@ -6533,10 +7109,10 @@
       </c>
     </row>
     <row r="325" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" s="3" t="s">
         <v>745</v>
       </c>
       <c r="C325">
@@ -6544,10 +7120,10 @@
       </c>
     </row>
     <row r="326" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B326" s="3" t="s">
         <v>746</v>
       </c>
       <c r="C326">
@@ -6555,10 +7131,10 @@
       </c>
     </row>
     <row r="327" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" s="3" t="s">
         <v>747</v>
       </c>
       <c r="C327">
@@ -6566,10 +7142,10 @@
       </c>
     </row>
     <row r="328" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" s="3" t="s">
         <v>748</v>
       </c>
       <c r="C328">
@@ -6577,10 +7153,10 @@
       </c>
     </row>
     <row r="329" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B329" s="3" t="s">
         <v>749</v>
       </c>
       <c r="C329">
@@ -6588,10 +7164,10 @@
       </c>
     </row>
     <row r="330" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="B330" s="4" t="s">
+      <c r="B330" s="3" t="s">
         <v>750</v>
       </c>
       <c r="C330">
@@ -6599,10 +7175,10 @@
       </c>
     </row>
     <row r="331" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="B331" s="4" t="s">
+      <c r="B331" s="3" t="s">
         <v>751</v>
       </c>
       <c r="C331">
@@ -6610,10 +7186,10 @@
       </c>
     </row>
     <row r="332" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B332" s="3" t="s">
         <v>752</v>
       </c>
       <c r="C332">
@@ -6621,10 +7197,10 @@
       </c>
     </row>
     <row r="333" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" s="3" t="s">
         <v>753</v>
       </c>
       <c r="C333">
@@ -6632,10 +7208,10 @@
       </c>
     </row>
     <row r="334" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B334" s="3" t="s">
         <v>754</v>
       </c>
       <c r="C334">
@@ -6643,10 +7219,10 @@
       </c>
     </row>
     <row r="335" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" s="3" t="s">
         <v>755</v>
       </c>
       <c r="C335">
@@ -6654,10 +7230,10 @@
       </c>
     </row>
     <row r="336" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" s="3" t="s">
         <v>756</v>
       </c>
       <c r="C336">
@@ -6665,10 +7241,10 @@
       </c>
     </row>
     <row r="337" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" s="3" t="s">
         <v>757</v>
       </c>
       <c r="C337">
@@ -6676,10 +7252,10 @@
       </c>
     </row>
     <row r="338" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" s="3" t="s">
         <v>758</v>
       </c>
       <c r="C338">
@@ -6687,10 +7263,10 @@
       </c>
     </row>
     <row r="339" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" s="3" t="s">
         <v>759</v>
       </c>
       <c r="C339">
@@ -6698,10 +7274,10 @@
       </c>
     </row>
     <row r="340" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" s="3" t="s">
         <v>760</v>
       </c>
       <c r="C340">
@@ -6709,10 +7285,10 @@
       </c>
     </row>
     <row r="341" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" s="3" t="s">
         <v>761</v>
       </c>
       <c r="C341">
@@ -6720,10 +7296,10 @@
       </c>
     </row>
     <row r="342" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="B342" s="3" t="s">
         <v>762</v>
       </c>
       <c r="C342">
@@ -6731,10 +7307,10 @@
       </c>
     </row>
     <row r="343" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B343" s="4" t="s">
+      <c r="B343" s="3" t="s">
         <v>763</v>
       </c>
       <c r="C343">
@@ -6742,10 +7318,10 @@
       </c>
     </row>
     <row r="344" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B344" s="3" t="s">
         <v>764</v>
       </c>
       <c r="C344">
@@ -6753,10 +7329,10 @@
       </c>
     </row>
     <row r="345" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B345" s="3" t="s">
         <v>765</v>
       </c>
       <c r="C345">
@@ -6764,10 +7340,10 @@
       </c>
     </row>
     <row r="346" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B346" s="3" t="s">
         <v>766</v>
       </c>
       <c r="C346">
@@ -6775,10 +7351,10 @@
       </c>
     </row>
     <row r="347" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="B347" s="3" t="s">
         <v>767</v>
       </c>
       <c r="C347">
@@ -6786,10 +7362,10 @@
       </c>
     </row>
     <row r="348" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" s="3" t="s">
         <v>768</v>
       </c>
       <c r="C348">
@@ -6797,10 +7373,10 @@
       </c>
     </row>
     <row r="349" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B349" s="3" t="s">
         <v>769</v>
       </c>
       <c r="C349">
@@ -6808,10 +7384,10 @@
       </c>
     </row>
     <row r="350" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="B350" s="3" t="s">
         <v>770</v>
       </c>
       <c r="C350">
@@ -6819,10 +7395,10 @@
       </c>
     </row>
     <row r="351" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="B351" s="3" t="s">
         <v>771</v>
       </c>
       <c r="C351">
@@ -6830,10 +7406,10 @@
       </c>
     </row>
     <row r="352" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B352" s="3" t="s">
         <v>772</v>
       </c>
       <c r="C352">
@@ -6841,10 +7417,10 @@
       </c>
     </row>
     <row r="353" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B353" s="3" t="s">
         <v>773</v>
       </c>
       <c r="C353">
@@ -6852,10 +7428,10 @@
       </c>
     </row>
     <row r="354" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A354" s="3" t="s">
+      <c r="A354" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="B354" s="3" t="s">
         <v>774</v>
       </c>
       <c r="C354">
@@ -6863,10 +7439,10 @@
       </c>
     </row>
     <row r="355" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="B355" s="3" t="s">
         <v>775</v>
       </c>
       <c r="C355">
@@ -6874,10 +7450,10 @@
       </c>
     </row>
     <row r="356" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B356" s="3" t="s">
         <v>776</v>
       </c>
       <c r="C356">
@@ -6885,10 +7461,10 @@
       </c>
     </row>
     <row r="357" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" s="3" t="s">
         <v>777</v>
       </c>
       <c r="C357">
@@ -6896,10 +7472,10 @@
       </c>
     </row>
     <row r="358" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B358" s="3" t="s">
         <v>778</v>
       </c>
       <c r="C358">
@@ -6907,10 +7483,10 @@
       </c>
     </row>
     <row r="359" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="B359" s="3" t="s">
         <v>779</v>
       </c>
       <c r="C359">
@@ -6918,10 +7494,10 @@
       </c>
     </row>
     <row r="360" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" s="3" t="s">
         <v>780</v>
       </c>
       <c r="C360">
@@ -6929,10 +7505,10 @@
       </c>
     </row>
     <row r="361" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="B361" s="3" t="s">
         <v>781</v>
       </c>
       <c r="C361">
@@ -6940,10 +7516,10 @@
       </c>
     </row>
     <row r="362" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B362" s="3" t="s">
         <v>782</v>
       </c>
       <c r="C362">
@@ -6951,10 +7527,10 @@
       </c>
     </row>
     <row r="363" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B363" s="3" t="s">
         <v>783</v>
       </c>
       <c r="C363">
@@ -6962,10 +7538,10 @@
       </c>
     </row>
     <row r="364" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B364" s="3" t="s">
         <v>784</v>
       </c>
       <c r="C364">
@@ -6973,10 +7549,10 @@
       </c>
     </row>
     <row r="365" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="B365" s="3" t="s">
         <v>785</v>
       </c>
       <c r="C365">
@@ -6984,10 +7560,10 @@
       </c>
     </row>
     <row r="366" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A366" s="3" t="s">
+      <c r="A366" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="B366" s="3" t="s">
         <v>786</v>
       </c>
       <c r="C366">
@@ -6995,10 +7571,10 @@
       </c>
     </row>
     <row r="367" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="B367" s="3" t="s">
         <v>787</v>
       </c>
       <c r="C367">
@@ -7006,10 +7582,10 @@
       </c>
     </row>
     <row r="368" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="B368" s="3" t="s">
         <v>788</v>
       </c>
       <c r="C368">
@@ -7017,10 +7593,10 @@
       </c>
     </row>
     <row r="369" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="B369" s="4" t="s">
+      <c r="B369" s="3" t="s">
         <v>789</v>
       </c>
       <c r="C369">
@@ -7028,10 +7604,10 @@
       </c>
     </row>
     <row r="370" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B370" s="4" t="s">
+      <c r="B370" s="3" t="s">
         <v>790</v>
       </c>
       <c r="C370">
@@ -7039,10 +7615,10 @@
       </c>
     </row>
     <row r="371" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="B371" s="4" t="s">
+      <c r="B371" s="3" t="s">
         <v>791</v>
       </c>
       <c r="C371">
@@ -7050,10 +7626,10 @@
       </c>
     </row>
     <row r="372" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A372" s="3" t="s">
+      <c r="A372" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B372" s="4" t="s">
+      <c r="B372" s="3" t="s">
         <v>792</v>
       </c>
       <c r="C372">
@@ -7061,10 +7637,10 @@
       </c>
     </row>
     <row r="373" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="B373" s="3" t="s">
         <v>793</v>
       </c>
       <c r="C373">
@@ -7072,10 +7648,10 @@
       </c>
     </row>
     <row r="374" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A374" s="3" t="s">
+      <c r="A374" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="B374" s="4" t="s">
+      <c r="B374" s="3" t="s">
         <v>794</v>
       </c>
       <c r="C374">
@@ -7083,10 +7659,10 @@
       </c>
     </row>
     <row r="375" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="B375" s="4" t="s">
+      <c r="B375" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C375">
@@ -7094,10 +7670,10 @@
       </c>
     </row>
     <row r="376" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B376" s="4" t="s">
+      <c r="B376" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C376">
@@ -7105,10 +7681,10 @@
       </c>
     </row>
     <row r="377" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="B377" s="4" t="s">
+      <c r="B377" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C377">
@@ -7116,10 +7692,10 @@
       </c>
     </row>
     <row r="378" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A378" s="3" t="s">
+      <c r="A378" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B378" s="4" t="s">
+      <c r="B378" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C378">
@@ -7127,10 +7703,10 @@
       </c>
     </row>
     <row r="379" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="B379" s="4" t="s">
+      <c r="B379" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C379">
@@ -7138,10 +7714,10 @@
       </c>
     </row>
     <row r="380" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A380" s="3" t="s">
+      <c r="A380" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="B380" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C380">
@@ -7149,10 +7725,10 @@
       </c>
     </row>
     <row r="381" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A381" s="3" t="s">
+      <c r="A381" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="B381" s="4" t="s">
+      <c r="B381" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C381">
@@ -7160,10 +7736,10 @@
       </c>
     </row>
     <row r="382" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B382" s="4" t="s">
+      <c r="B382" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C382">
@@ -7171,10 +7747,10 @@
       </c>
     </row>
     <row r="383" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="B383" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C383">
@@ -7182,10 +7758,10 @@
       </c>
     </row>
     <row r="384" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="B384" s="4" t="s">
+      <c r="B384" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C384">
@@ -7193,10 +7769,10 @@
       </c>
     </row>
     <row r="385" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B385" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C385">
@@ -7204,10 +7780,10 @@
       </c>
     </row>
     <row r="386" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="B386" s="4" t="s">
+      <c r="B386" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C386">
@@ -7215,10 +7791,10 @@
       </c>
     </row>
     <row r="387" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="B387" s="4" t="s">
+      <c r="B387" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C387">
@@ -7226,10 +7802,10 @@
       </c>
     </row>
     <row r="388" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A388" s="3" t="s">
+      <c r="A388" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="B388" s="4" t="s">
+      <c r="B388" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C388">
@@ -7237,10 +7813,10 @@
       </c>
     </row>
     <row r="389" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A389" s="3" t="s">
+      <c r="A389" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="B389" s="4" t="s">
+      <c r="B389" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C389">
@@ -7248,10 +7824,10 @@
       </c>
     </row>
     <row r="390" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A390" s="3" t="s">
+      <c r="A390" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="B390" s="4" t="s">
+      <c r="B390" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C390">
@@ -7259,10 +7835,10 @@
       </c>
     </row>
     <row r="391" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A391" s="3" t="s">
+      <c r="A391" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="B391" s="4" t="s">
+      <c r="B391" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C391">
@@ -7270,10 +7846,10 @@
       </c>
     </row>
     <row r="392" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A392" s="3" t="s">
+      <c r="A392" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B392" s="4" t="s">
+      <c r="B392" s="3" t="s">
         <v>812</v>
       </c>
       <c r="C392">
@@ -7281,10 +7857,10 @@
       </c>
     </row>
     <row r="393" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="B393" s="4" t="s">
+      <c r="B393" s="3" t="s">
         <v>813</v>
       </c>
       <c r="C393">
@@ -7292,10 +7868,10 @@
       </c>
     </row>
     <row r="394" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A394" s="3" t="s">
+      <c r="A394" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B394" s="3" t="s">
         <v>814</v>
       </c>
       <c r="C394">
@@ -7303,10 +7879,10 @@
       </c>
     </row>
     <row r="395" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A395" s="3" t="s">
+      <c r="A395" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="B395" s="4" t="s">
+      <c r="B395" s="3" t="s">
         <v>815</v>
       </c>
       <c r="C395">
@@ -7314,10 +7890,10 @@
       </c>
     </row>
     <row r="396" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A396" s="3" t="s">
+      <c r="A396" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="B396" s="4" t="s">
+      <c r="B396" s="3" t="s">
         <v>816</v>
       </c>
       <c r="C396">
@@ -7325,10 +7901,10 @@
       </c>
     </row>
     <row r="397" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A397" s="3" t="s">
+      <c r="A397" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="B397" s="4" t="s">
+      <c r="B397" s="3" t="s">
         <v>817</v>
       </c>
       <c r="C397">
@@ -7336,10 +7912,10 @@
       </c>
     </row>
     <row r="398" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A398" s="3" t="s">
+      <c r="A398" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B398" s="4" t="s">
+      <c r="B398" s="3" t="s">
         <v>818</v>
       </c>
       <c r="C398">
@@ -7347,10 +7923,10 @@
       </c>
     </row>
     <row r="399" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B399" s="3" t="s">
         <v>819</v>
       </c>
       <c r="C399">
@@ -7358,10 +7934,10 @@
       </c>
     </row>
     <row r="400" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="B400" s="4" t="s">
+      <c r="B400" s="3" t="s">
         <v>820</v>
       </c>
       <c r="C400">
@@ -7369,10 +7945,10 @@
       </c>
     </row>
     <row r="401" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B401" s="3" t="s">
         <v>821</v>
       </c>
       <c r="C401">
@@ -7380,10 +7956,10 @@
       </c>
     </row>
     <row r="402" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="B402" s="4" t="s">
+      <c r="B402" s="3" t="s">
         <v>822</v>
       </c>
       <c r="C402">
@@ -7391,10 +7967,10 @@
       </c>
     </row>
     <row r="403" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A403" s="3" t="s">
+      <c r="A403" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="B403" s="4" t="s">
+      <c r="B403" s="3" t="s">
         <v>823</v>
       </c>
       <c r="C403">
@@ -7402,10 +7978,10 @@
       </c>
     </row>
     <row r="404" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A404" s="3" t="s">
+      <c r="A404" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="B404" s="4" t="s">
+      <c r="B404" s="3" t="s">
         <v>824</v>
       </c>
       <c r="C404">
@@ -7413,10 +7989,10 @@
       </c>
     </row>
     <row r="405" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A405" s="3" t="s">
+      <c r="A405" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="B405" s="4" t="s">
+      <c r="B405" s="3" t="s">
         <v>825</v>
       </c>
       <c r="C405">
@@ -7424,10 +8000,10 @@
       </c>
     </row>
     <row r="406" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A406" s="3" t="s">
+      <c r="A406" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B406" s="4" t="s">
+      <c r="B406" s="3" t="s">
         <v>826</v>
       </c>
       <c r="C406">
@@ -7435,10 +8011,10 @@
       </c>
     </row>
     <row r="407" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A407" s="3" t="s">
+      <c r="A407" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B407" s="3" t="s">
         <v>827</v>
       </c>
       <c r="C407">
@@ -7446,10 +8022,10 @@
       </c>
     </row>
     <row r="408" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A408" s="3" t="s">
+      <c r="A408" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B408" s="4" t="s">
+      <c r="B408" s="3" t="s">
         <v>828</v>
       </c>
       <c r="C408">
@@ -7457,10 +8033,10 @@
       </c>
     </row>
     <row r="409" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="B409" s="4" t="s">
+      <c r="B409" s="3" t="s">
         <v>829</v>
       </c>
       <c r="C409">
@@ -7468,10 +8044,10 @@
       </c>
     </row>
     <row r="410" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B410" s="3" t="s">
         <v>830</v>
       </c>
       <c r="C410">
@@ -7479,10 +8055,10 @@
       </c>
     </row>
     <row r="411" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="B411" s="4" t="s">
+      <c r="B411" s="3" t="s">
         <v>831</v>
       </c>
       <c r="C411">
@@ -7490,10 +8066,10 @@
       </c>
     </row>
     <row r="412" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A412" s="3" t="s">
+      <c r="A412" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="B412" s="4" t="s">
+      <c r="B412" s="3" t="s">
         <v>832</v>
       </c>
       <c r="C412">
@@ -7501,10 +8077,10 @@
       </c>
     </row>
     <row r="413" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="B413" s="4" t="s">
+      <c r="B413" s="3" t="s">
         <v>833</v>
       </c>
       <c r="C413">
@@ -7512,10 +8088,10 @@
       </c>
     </row>
     <row r="414" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="B414" s="4" t="s">
+      <c r="B414" s="3" t="s">
         <v>834</v>
       </c>
       <c r="C414">
@@ -7523,10 +8099,10 @@
       </c>
     </row>
     <row r="415" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A415" s="3" t="s">
+      <c r="A415" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B415" s="3" t="s">
         <v>835</v>
       </c>
       <c r="C415">
@@ -7534,10 +8110,10 @@
       </c>
     </row>
     <row r="416" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A416" s="3" t="s">
+      <c r="A416" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B416" s="3" t="s">
         <v>836</v>
       </c>
       <c r="C416">
@@ -7545,10 +8121,10 @@
       </c>
     </row>
     <row r="417" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B417" s="3" t="s">
         <v>837</v>
       </c>
       <c r="C417">
@@ -7556,10 +8132,10 @@
       </c>
     </row>
     <row r="418" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A418" s="3" t="s">
+      <c r="A418" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="B418" s="4" t="s">
+      <c r="B418" s="3" t="s">
         <v>838</v>
       </c>
       <c r="C418">
@@ -7567,10 +8143,10 @@
       </c>
     </row>
     <row r="419" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A419" s="3" t="s">
+      <c r="A419" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="B419" s="4" t="s">
+      <c r="B419" s="3" t="s">
         <v>839</v>
       </c>
       <c r="C419">
@@ -7578,10 +8154,10 @@
       </c>
     </row>
     <row r="420" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="B420" s="4" t="s">
+      <c r="B420" s="3" t="s">
         <v>840</v>
       </c>
       <c r="C420">
@@ -7589,10 +8165,10 @@
       </c>
     </row>
     <row r="421" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="B421" s="3" t="s">
         <v>841</v>
       </c>
       <c r="C421">
@@ -7600,14 +8176,1070 @@
       </c>
     </row>
     <row r="422" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A422" s="3" t="s">
+      <c r="A422" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="B422" s="4" t="s">
+      <c r="B422" s="3" t="s">
         <v>842</v>
       </c>
       <c r="C422">
         <v>37</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B423" t="s">
+        <v>845</v>
+      </c>
+      <c r="C423" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B424" t="s">
+        <v>847</v>
+      </c>
+      <c r="C424" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A425" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B425" t="s">
+        <v>849</v>
+      </c>
+      <c r="C425" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A426" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B426" t="s">
+        <v>851</v>
+      </c>
+      <c r="C426" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A427" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B427" t="s">
+        <v>853</v>
+      </c>
+      <c r="C427" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A428" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B428" t="s">
+        <v>855</v>
+      </c>
+      <c r="C428" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A429" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B429" t="s">
+        <v>857</v>
+      </c>
+      <c r="C429" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A430" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B430" t="s">
+        <v>859</v>
+      </c>
+      <c r="C430" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A431" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B431" t="s">
+        <v>861</v>
+      </c>
+      <c r="C431" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A432" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B432" t="s">
+        <v>863</v>
+      </c>
+      <c r="C432" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A433" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B433" t="s">
+        <v>865</v>
+      </c>
+      <c r="C433" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A434" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="B434" t="s">
+        <v>867</v>
+      </c>
+      <c r="C434" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A435" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B435" t="s">
+        <v>869</v>
+      </c>
+      <c r="C435" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A436" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B436" t="s">
+        <v>871</v>
+      </c>
+      <c r="C436" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A437" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="B437" t="s">
+        <v>873</v>
+      </c>
+      <c r="C437" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A438" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B438" t="s">
+        <v>875</v>
+      </c>
+      <c r="C438" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A439" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B439" t="s">
+        <v>877</v>
+      </c>
+      <c r="C439" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A440" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B440" t="s">
+        <v>879</v>
+      </c>
+      <c r="C440" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B441" t="s">
+        <v>881</v>
+      </c>
+      <c r="C441" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A442" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B442" t="s">
+        <v>883</v>
+      </c>
+      <c r="C442" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A443" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B443" t="s">
+        <v>884</v>
+      </c>
+      <c r="C443">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A444" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B444" t="s">
+        <v>886</v>
+      </c>
+      <c r="C444" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A445" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B445" t="s">
+        <v>888</v>
+      </c>
+      <c r="C445" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A446" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B446" t="s">
+        <v>890</v>
+      </c>
+      <c r="C446" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A447" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B447" t="s">
+        <v>892</v>
+      </c>
+      <c r="C447" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A448" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B448" t="s">
+        <v>894</v>
+      </c>
+      <c r="C448" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A449" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B449" t="s">
+        <v>896</v>
+      </c>
+      <c r="C449" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A450" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B450" t="s">
+        <v>898</v>
+      </c>
+      <c r="C450" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A451" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B451" t="s">
+        <v>900</v>
+      </c>
+      <c r="C451" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A452" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B452" t="s">
+        <v>902</v>
+      </c>
+      <c r="C452" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A453" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B453" t="s">
+        <v>904</v>
+      </c>
+      <c r="C453" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A454" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="B454" t="s">
+        <v>906</v>
+      </c>
+      <c r="C454" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A455" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B455" t="s">
+        <v>908</v>
+      </c>
+      <c r="C455" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A456" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B456" t="s">
+        <v>910</v>
+      </c>
+      <c r="C456" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A457" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="B457" t="s">
+        <v>912</v>
+      </c>
+      <c r="C457" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A458" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B458" t="s">
+        <v>914</v>
+      </c>
+      <c r="C458" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A459" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B459" t="s">
+        <v>916</v>
+      </c>
+      <c r="C459" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A460" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B460" t="s">
+        <v>918</v>
+      </c>
+      <c r="C460" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A461" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B461" t="s">
+        <v>920</v>
+      </c>
+      <c r="C461" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A462" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B462" t="s">
+        <v>922</v>
+      </c>
+      <c r="C462" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B463" t="s">
+        <v>924</v>
+      </c>
+      <c r="C463" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A464" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B464" t="s">
+        <v>926</v>
+      </c>
+      <c r="C464" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A465" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B465" t="s">
+        <v>928</v>
+      </c>
+      <c r="C465" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A466" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B466" t="s">
+        <v>930</v>
+      </c>
+      <c r="C466" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A467" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B467" t="s">
+        <v>932</v>
+      </c>
+      <c r="C467" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A468" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="B468" t="s">
+        <v>934</v>
+      </c>
+      <c r="C468" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A469" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B469" t="s">
+        <v>936</v>
+      </c>
+      <c r="C469" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A470" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B470" t="s">
+        <v>938</v>
+      </c>
+      <c r="C470" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A471" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B471" t="s">
+        <v>940</v>
+      </c>
+      <c r="C471" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A472" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B472" t="s">
+        <v>942</v>
+      </c>
+      <c r="C472" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A473" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="B473" t="s">
+        <v>944</v>
+      </c>
+      <c r="C473" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A474" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B474" t="s">
+        <v>946</v>
+      </c>
+      <c r="C474" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A475" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="B475" t="s">
+        <v>948</v>
+      </c>
+      <c r="C475" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A476" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B476" t="s">
+        <v>950</v>
+      </c>
+      <c r="C476" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A477" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="B477" t="s">
+        <v>952</v>
+      </c>
+      <c r="C477" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A478" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B478" t="s">
+        <v>954</v>
+      </c>
+      <c r="C478" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B479" t="s">
+        <v>956</v>
+      </c>
+      <c r="C479" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A480" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="B480" t="s">
+        <v>958</v>
+      </c>
+      <c r="C480" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="B481" t="s">
+        <v>960</v>
+      </c>
+      <c r="C481" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A482" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B482" t="s">
+        <v>962</v>
+      </c>
+      <c r="C482" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B483" t="s">
+        <v>964</v>
+      </c>
+      <c r="C483" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B484" t="s">
+        <v>966</v>
+      </c>
+      <c r="C484" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B485" t="s">
+        <v>968</v>
+      </c>
+      <c r="C485" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A486" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B486" t="s">
+        <v>970</v>
+      </c>
+      <c r="C486" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A487" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B487" t="s">
+        <v>972</v>
+      </c>
+      <c r="C487" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B488" t="s">
+        <v>974</v>
+      </c>
+      <c r="C488" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B489" t="s">
+        <v>976</v>
+      </c>
+      <c r="C489" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A490" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B490" t="s">
+        <v>978</v>
+      </c>
+      <c r="C490" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A491" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B491" t="s">
+        <v>980</v>
+      </c>
+      <c r="C491" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A492" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B492" t="s">
+        <v>982</v>
+      </c>
+      <c r="C492" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A493" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="B493" t="s">
+        <v>984</v>
+      </c>
+      <c r="C493" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A494" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B494" t="s">
+        <v>986</v>
+      </c>
+      <c r="C494" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A495" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B495" t="s">
+        <v>988</v>
+      </c>
+      <c r="C495" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A496" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="B496" t="s">
+        <v>990</v>
+      </c>
+      <c r="C496" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A497" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B497" t="s">
+        <v>992</v>
+      </c>
+      <c r="C497" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A498" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B498" t="s">
+        <v>994</v>
+      </c>
+      <c r="C498" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A499" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B499" t="s">
+        <v>996</v>
+      </c>
+      <c r="C499" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A500" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B500" t="s">
+        <v>998</v>
+      </c>
+      <c r="C500" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A501" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C501" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A502" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C502" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A503" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C503" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A504" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C504" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A505" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C505" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A506" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C506" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A507" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C507" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A508" s="8">
+        <v>9900000001</v>
+      </c>
+      <c r="B508" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C508" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A509" s="8">
+        <v>9900000002</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C509" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A510" s="8">
+        <v>9900000003</v>
+      </c>
+      <c r="B510" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C510" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A511" s="8">
+        <v>9900000004</v>
+      </c>
+      <c r="B511" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C511" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A512" s="8">
+        <v>9900000005</v>
+      </c>
+      <c r="B512" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C512" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A513" s="8">
+        <v>9900000006</v>
+      </c>
+      <c r="B513" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C513" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A514" s="8">
+        <v>9900000007</v>
+      </c>
+      <c r="B514" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C514" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A515" s="8">
+        <v>9900000008</v>
+      </c>
+      <c r="B515" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C515" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A516" s="8">
+        <v>9900000009</v>
+      </c>
+      <c r="B516" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C516" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A517" s="8">
+        <v>9900000010</v>
+      </c>
+      <c r="B517" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C517" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A518" s="8">
+        <v>9900000011</v>
+      </c>
+      <c r="B518" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C518" s="10">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
